--- a/config_8.3/act_hhl_ty_config.xlsx
+++ b/config_8.3/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>line|</t>
   </si>
@@ -89,19 +89,7 @@
     <t>type|类型 实物 1 金币 0</t>
   </si>
   <si>
-    <t>actp_prop_exchange_nor_v5</t>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor_v4</t>
-  </si>
-  <si>
     <t>ty_icon_jb_30y</t>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor_v3</t>
-  </si>
-  <si>
-    <t>actp_prop_exchange_nor</t>
   </si>
   <si>
     <t>ty_icon_jb_15y</t>
@@ -648,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -683,7 +671,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -712,10 +700,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>12</v>
@@ -761,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -791,7 +779,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>20</v>
@@ -808,10 +796,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>600</v>
@@ -820,19 +808,17 @@
       <c r="G2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2">
         <v>1000</v>
@@ -841,19 +827,17 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>23</v>
-      </c>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
         <v>3000</v>
@@ -862,19 +846,17 @@
       <c r="G4" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>6000</v>
@@ -883,19 +865,17 @@
       <c r="G5" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2">
         <v>12000</v>
@@ -904,19 +884,17 @@
       <c r="G6" s="5">
         <v>0</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2">
         <v>36000</v>
@@ -925,19 +903,17 @@
       <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>50000</v>
@@ -946,19 +922,17 @@
       <c r="G8" s="5">
         <v>0</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2">
         <v>80000</v>
@@ -967,19 +941,17 @@
       <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2">
         <v>120000</v>
@@ -988,19 +960,17 @@
       <c r="G10" s="5">
         <v>0</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2">
         <v>150000</v>
@@ -1009,9 +979,7 @@
       <c r="G11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
@@ -1123,19 +1091,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1233,13 +1201,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1254,17 +1223,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1274,18 +1252,8 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1297,13 +1265,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1315,7 +1283,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_8.3/act_hhl_ty_config.xlsx
+++ b/config_8.3/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>2000万鱼币</t>
-  </si>
-  <si>
-    <t>ty_icon_yxb_5</t>
   </si>
   <si>
     <t>swjl_3</t>
@@ -199,6 +196,10 @@
   </si>
   <si>
     <t>仓鼠舒适靠枕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yb_5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -636,7 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -703,7 +704,7 @@
         <v>59</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>12</v>
@@ -749,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -891,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>40</v>
@@ -901,7 +902,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="10"/>
     </row>
@@ -929,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>42</v>
@@ -939,7 +940,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="10"/>
     </row>
@@ -950,8 +951,8 @@
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>44</v>
+      <c r="C10" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="D10" s="2">
         <v>120000</v>
@@ -967,17 +968,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2">
         <v>150000</v>
       </c>
       <c r="E11" s="2"/>
       <c r="G11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="10"/>
     </row>
@@ -1201,14 +1202,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1223,26 +1223,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1252,8 +1243,18 @@
 </allowEditUser>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1265,13 +1266,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1283,7 +1284,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>